--- a/Input/Medgulf_Nextcare/benefits.xlsx
+++ b/Input/Medgulf_Nextcare/benefits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="126">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">Covered with restirctions</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 15,000 with 15% co-pay / Diagnostics covered in full with 10 % co-pay Consultations covered with 20% up to max AED 50 </t>
+    <t xml:space="preserve">Medicines covered up to AED 15,000 with $% co-pay / Diagnostics covered in full with $ % co-pay Consultations covered with $</t>
   </si>
   <si>
     <t xml:space="preserve">20% up to AED 50 max</t>
@@ -313,7 +313,24 @@
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% with AED 50 max, medicines 15% co-pay, diagnostics 10% co-pay/</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% with AED 50 max, medicines 15% co-pay, diagnostics 10% co-pay/15/10/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20% up to max AED 50</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Plan 2</t>
@@ -322,13 +339,30 @@
     <t xml:space="preserve">Nextcare GN</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 10,000 with 15% co-pay / Diagnostics covered in full with 10 % co-pay Consultations covered with 20% up to max AED 50 </t>
+    <t xml:space="preserve">Medicines covered up to AED 10,000 with $% co-pay / Diagnostics covered in full with $% co-pay Consultations covered with $</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 10,000 with 15% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% with AED 50 max, medicines 20% co-pay, diagnostics 10% co-pay/</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% with AED 50 max, medicines 20% co-pay, diagnostics 20% co-pay/20/20/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20% up to max AED 50</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Plan GN Limited</t>
@@ -337,7 +371,10 @@
     <t xml:space="preserve">Nextcare GN - Excl. MCG, Al Zahra &amp; Suleiman Al Habib</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations nil co-pay, medicines and diagnostics nil co-pay/</t>
+    <t xml:space="preserve">Medicines covered up to AED 10,000 with $% co-pay / Diagnostics covered in full with $ % co-pay Consultations covered with $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations nil co-pay, medicines and diagnostics nil co-pay/Nil/Nil/Nil</t>
   </si>
   <si>
     <t xml:space="preserve">Plan 3</t>
@@ -346,7 +383,7 @@
     <t xml:space="preserve">Nextcare RN</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 7,500 with 15% co-pay / Diagnostics covered in full with 10 % co-pay Consultations covered with 20% up to max AED 50 </t>
+    <t xml:space="preserve">Medicines covered up to AED 7,500 with $% co-pay / Diagnostics covered in full with $ % co-pay Consultations covered with $</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 7,500 with 15% co-pay</t>
@@ -370,7 +407,7 @@
     <t xml:space="preserve">Nextcare RN2</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 5,000 with 15% co-pay / Diagnostics covered in full with 10 % co-pay Consultations covered with 20% up to max AED 50 </t>
+    <t xml:space="preserve">Medicines covered up to AED 5,000 with $% co-pay / Diagnostics covered in full with $ % co-pay Consultations covered with $</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 5,000 subject to 15% co-pay</t>
@@ -408,7 +445,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -436,6 +473,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -501,16 +544,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -532,8 +575,8 @@
   </sheetPr>
   <dimension ref="A1:BK7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BK8" activeCellId="0" sqref="BK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,11 +584,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="77.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="77.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="33.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.42"/>
@@ -602,6 +645,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="23.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="63.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="64" style="0" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,7 +824,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>58</v>
       </c>
@@ -821,7 +865,7 @@
         <v>68</v>
       </c>
       <c r="P2" s="0"/>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="R2" s="0" t="s">
@@ -922,10 +966,10 @@
       <c r="BF2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="BG2" s="5" t="s">
+      <c r="BG2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BH2" s="6" t="s">
+      <c r="BH2" s="7" t="s">
         <v>94</v>
       </c>
       <c r="BI2" s="2" t="s">
@@ -934,11 +978,11 @@
       <c r="BJ2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BK2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>97</v>
       </c>
@@ -979,7 +1023,7 @@
         <v>68</v>
       </c>
       <c r="P3" s="0"/>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="5" t="s">
         <v>99</v>
       </c>
       <c r="R3" s="0" t="s">
@@ -1078,11 +1122,11 @@
         <v>91</v>
       </c>
       <c r="BH3" s="3"/>
-      <c r="BK3" s="7" t="s">
+      <c r="BK3" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>102</v>
       </c>
@@ -1123,8 +1167,8 @@
         <v>68</v>
       </c>
       <c r="P4" s="0"/>
-      <c r="Q4" s="0" t="s">
-        <v>99</v>
+      <c r="Q4" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>70</v>
@@ -1218,14 +1262,14 @@
       <c r="BE4" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="BH4" s="6"/>
-      <c r="BK4" s="7" t="s">
-        <v>104</v>
+      <c r="BH4" s="7"/>
+      <c r="BK4" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>59</v>
@@ -1234,7 +1278,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>62</v>
@@ -1264,8 +1308,8 @@
         <v>68</v>
       </c>
       <c r="P5" s="0"/>
-      <c r="Q5" s="0" t="s">
-        <v>107</v>
+      <c r="Q5" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>70</v>
@@ -1274,7 +1318,7 @@
         <v>70</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U5" s="0" t="s">
         <v>72</v>
@@ -1283,10 +1327,10 @@
         <v>73</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z5" s="0" t="s">
         <v>76</v>
@@ -1298,14 +1342,14 @@
         <v>78</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE5" s="0" t="s">
         <v>80</v>
       </c>
       <c r="AF5" s="0"/>
       <c r="AG5" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH5" s="0" t="s">
         <v>82</v>
@@ -1362,11 +1406,11 @@
       <c r="BE5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="BH5" s="6"/>
+      <c r="BH5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>59</v>
@@ -1375,7 +1419,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>62</v>
@@ -1405,8 +1449,8 @@
         <v>68</v>
       </c>
       <c r="P6" s="0"/>
-      <c r="Q6" s="0" t="s">
-        <v>115</v>
+      <c r="Q6" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>70</v>
@@ -1415,7 +1459,7 @@
         <v>70</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U6" s="0" t="s">
         <v>72</v>
@@ -1424,10 +1468,10 @@
         <v>73</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" s="0" t="s">
         <v>76</v>
@@ -1439,14 +1483,14 @@
         <v>78</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AE6" s="0" t="s">
         <v>80</v>
       </c>
       <c r="AF6" s="0"/>
       <c r="AG6" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AH6" s="0" t="s">
         <v>82</v>
@@ -1503,11 +1547,11 @@
       <c r="BE6" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="BH6" s="6"/>
+      <c r="BH6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>59</v>
@@ -1516,7 +1560,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>62</v>
@@ -1528,7 +1572,7 @@
         <v>64</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>66</v>
@@ -1546,8 +1590,8 @@
         <v>68</v>
       </c>
       <c r="P7" s="0"/>
-      <c r="Q7" s="0" t="s">
-        <v>115</v>
+      <c r="Q7" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>70</v>
@@ -1556,7 +1600,7 @@
         <v>70</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U7" s="0" t="s">
         <v>72</v>
@@ -1565,10 +1609,10 @@
         <v>73</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z7" s="0" t="s">
         <v>76</v>
